--- a/backend/data/Data for 24-Aug-2023/Nifty_Data_24-Aug-2023.xlsx
+++ b/backend/data/Data for 24-Aug-2023/Nifty_Data_24-Aug-2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,10 +561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B2" t="n">
-        <v>19350</v>
+        <v>19250</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -572,75 +572,75 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>59699</v>
+        <v>12961</v>
       </c>
       <c r="E2" t="n">
-        <v>-1850</v>
+        <v>-1295</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.005735267835383</v>
+        <v>-9.083894500561167</v>
       </c>
       <c r="G2" t="n">
-        <v>397627</v>
+        <v>109782</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11.69</v>
       </c>
       <c r="I2" t="n">
-        <v>100.5</v>
+        <v>136.65</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1500000000000057</v>
+        <v>-54.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1494768310911865</v>
+        <v>-28.36173001310616</v>
       </c>
       <c r="L2" t="n">
-        <v>6023200</v>
+        <v>760850</v>
       </c>
       <c r="M2" t="n">
-        <v>228550</v>
+        <v>33100</v>
       </c>
       <c r="N2" t="n">
-        <v>209935</v>
+        <v>99185</v>
       </c>
       <c r="O2" t="n">
-        <v>56680</v>
+        <v>-108304</v>
       </c>
       <c r="P2" t="n">
-        <v>36.98411144823987</v>
+        <v>-52.19746588975801</v>
       </c>
       <c r="Q2" t="n">
-        <v>4072879</v>
+        <v>2042148</v>
       </c>
       <c r="R2" t="n">
-        <v>6.72</v>
+        <v>4.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="T2" t="n">
-        <v>-13.3</v>
+        <v>-4.5</v>
       </c>
       <c r="U2" t="n">
-        <v>-88.66666666666667</v>
+        <v>-97.82608695652175</v>
       </c>
       <c r="V2" t="n">
-        <v>23009100</v>
+        <v>2877900</v>
       </c>
       <c r="W2" t="n">
-        <v>1865650</v>
+        <v>483850</v>
       </c>
       <c r="X2" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B3" t="n">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -648,75 +648,75 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>166843</v>
+        <v>52168</v>
       </c>
       <c r="E3" t="n">
-        <v>-9383</v>
+        <v>-8427</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.324412969709351</v>
+        <v>-13.90708804356795</v>
       </c>
       <c r="G3" t="n">
-        <v>2404941</v>
+        <v>767852</v>
       </c>
       <c r="H3" t="n">
-        <v>4.22</v>
+        <v>8.48</v>
       </c>
       <c r="I3" t="n">
-        <v>55.65</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>-7.700000000000003</v>
+        <v>-57.30000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>-12.15469613259669</v>
+        <v>-39.75026014568159</v>
       </c>
       <c r="L3" t="n">
-        <v>10315800</v>
+        <v>1489800</v>
       </c>
       <c r="M3" t="n">
-        <v>1264550</v>
+        <v>157300</v>
       </c>
       <c r="N3" t="n">
-        <v>390429</v>
+        <v>223723</v>
       </c>
       <c r="O3" t="n">
-        <v>138416</v>
+        <v>-40940</v>
       </c>
       <c r="P3" t="n">
-        <v>54.92415073825557</v>
+        <v>-15.46872815618352</v>
       </c>
       <c r="Q3" t="n">
-        <v>9694675</v>
+        <v>4995016</v>
       </c>
       <c r="R3" t="n">
-        <v>6.36</v>
+        <v>3.33</v>
       </c>
       <c r="S3" t="n">
-        <v>6.9</v>
+        <v>0.05</v>
       </c>
       <c r="T3" t="n">
-        <v>-21.85</v>
+        <v>-8.149999999999999</v>
       </c>
       <c r="U3" t="n">
-        <v>-76</v>
+        <v>-99.39024390243901</v>
       </c>
       <c r="V3" t="n">
-        <v>24012950</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2977000</v>
+        <v>1743700</v>
       </c>
       <c r="X3" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B4" t="n">
-        <v>19450</v>
+        <v>19350</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -724,75 +724,75 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>337506</v>
+        <v>85319</v>
       </c>
       <c r="E4" t="n">
-        <v>137265</v>
+        <v>23770</v>
       </c>
       <c r="F4" t="n">
-        <v>68.54989737366473</v>
+        <v>38.61963638726868</v>
       </c>
       <c r="G4" t="n">
-        <v>4912695</v>
+        <v>1865803</v>
       </c>
       <c r="H4" t="n">
-        <v>5.41</v>
+        <v>4.85</v>
       </c>
       <c r="I4" t="n">
-        <v>23.25</v>
+        <v>37.1</v>
       </c>
       <c r="J4" t="n">
-        <v>-13.1</v>
+        <v>-63.24999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>-36.0385144429161</v>
+        <v>-63.02939711011459</v>
       </c>
       <c r="L4" t="n">
-        <v>16441550</v>
+        <v>2195450</v>
       </c>
       <c r="M4" t="n">
-        <v>2314700</v>
+        <v>501850</v>
       </c>
       <c r="N4" t="n">
-        <v>261884</v>
+        <v>219992</v>
       </c>
       <c r="O4" t="n">
-        <v>175292</v>
+        <v>66737</v>
       </c>
       <c r="P4" t="n">
-        <v>202.4344050258684</v>
+        <v>43.54637695344361</v>
       </c>
       <c r="Q4" t="n">
-        <v>9201189</v>
+        <v>10181291</v>
       </c>
       <c r="R4" t="n">
-        <v>6.59</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
-        <v>24.3</v>
+        <v>0.05</v>
       </c>
       <c r="T4" t="n">
-        <v>-27.5</v>
+        <v>-14.95</v>
       </c>
       <c r="U4" t="n">
-        <v>-53.08880308880308</v>
+        <v>-99.66666666666666</v>
       </c>
       <c r="V4" t="n">
-        <v>21770850</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1345800</v>
+        <v>2681900</v>
       </c>
       <c r="X4" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B5" t="n">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -800,75 +800,75 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>620095</v>
+        <v>416428</v>
       </c>
       <c r="E5" t="n">
-        <v>343383</v>
+        <v>240202</v>
       </c>
       <c r="F5" t="n">
-        <v>124.094003874064</v>
+        <v>136.3033831557205</v>
       </c>
       <c r="G5" t="n">
-        <v>10249147</v>
+        <v>13371024</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>0.92</v>
       </c>
       <c r="I5" t="n">
-        <v>8.75</v>
+        <v>0.05</v>
       </c>
       <c r="J5" t="n">
-        <v>-10.7</v>
+        <v>-63.3</v>
       </c>
       <c r="K5" t="n">
-        <v>-55.01285347043702</v>
+        <v>-99.92107340173639</v>
       </c>
       <c r="L5" t="n">
-        <v>21022250</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>5645100</v>
+        <v>6820750</v>
       </c>
       <c r="N5" t="n">
-        <v>139554</v>
+        <v>263236</v>
       </c>
       <c r="O5" t="n">
-        <v>83253</v>
+        <v>11223</v>
       </c>
       <c r="P5" t="n">
-        <v>147.8712633878617</v>
+        <v>4.453341692690456</v>
       </c>
       <c r="Q5" t="n">
-        <v>9456780</v>
+        <v>26788965</v>
       </c>
       <c r="R5" t="n">
-        <v>7.77</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>60.15</v>
+        <v>12.85</v>
       </c>
       <c r="T5" t="n">
-        <v>-24.4</v>
+        <v>-15.9</v>
       </c>
       <c r="U5" t="n">
-        <v>-28.85866351271437</v>
+        <v>-55.30434782608695</v>
       </c>
       <c r="V5" t="n">
-        <v>15911100</v>
+        <v>9270800</v>
       </c>
       <c r="W5" t="n">
-        <v>681750</v>
+        <v>1196200</v>
       </c>
       <c r="X5" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B6" t="n">
-        <v>19550</v>
+        <v>19450</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -876,75 +876,75 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>399389</v>
+        <v>339190</v>
       </c>
       <c r="E6" t="n">
-        <v>239627</v>
+        <v>138949</v>
       </c>
       <c r="F6" t="n">
-        <v>149.9899851028405</v>
+        <v>69.39088398479832</v>
       </c>
       <c r="G6" t="n">
-        <v>9691905</v>
+        <v>15900763</v>
       </c>
       <c r="H6" t="n">
-        <v>7.17</v>
+        <v>2.73</v>
       </c>
       <c r="I6" t="n">
-        <v>2.95</v>
+        <v>0.05</v>
       </c>
       <c r="J6" t="n">
-        <v>-6.149999999999999</v>
+        <v>-36.3</v>
       </c>
       <c r="K6" t="n">
-        <v>-67.58241758241758</v>
+        <v>-99.86244841815682</v>
       </c>
       <c r="L6" t="n">
-        <v>23729300</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>4158000</v>
+        <v>4948900</v>
       </c>
       <c r="N6" t="n">
-        <v>39163</v>
+        <v>104175</v>
       </c>
       <c r="O6" t="n">
-        <v>31736</v>
+        <v>17583</v>
       </c>
       <c r="P6" t="n">
-        <v>427.3057762218931</v>
+        <v>20.30557095343681</v>
       </c>
       <c r="Q6" t="n">
-        <v>4412494</v>
+        <v>14659420</v>
       </c>
       <c r="R6" t="n">
-        <v>9.43</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>104.2</v>
+        <v>62.75</v>
       </c>
       <c r="T6" t="n">
-        <v>-19.8</v>
+        <v>10.95</v>
       </c>
       <c r="U6" t="n">
-        <v>-15.96774193548387</v>
+        <v>21.13899613899615</v>
       </c>
       <c r="V6" t="n">
-        <v>10995700</v>
+        <v>3093650</v>
       </c>
       <c r="W6" t="n">
-        <v>198500</v>
+        <v>201650</v>
       </c>
       <c r="X6" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B7" t="n">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -952,75 +952,75 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>391080</v>
+        <v>231908</v>
       </c>
       <c r="E7" t="n">
-        <v>140499</v>
+        <v>-44804</v>
       </c>
       <c r="F7" t="n">
-        <v>56.06929495851641</v>
+        <v>-16.19156379195698</v>
       </c>
       <c r="G7" t="n">
-        <v>9586049</v>
+        <v>16997117</v>
       </c>
       <c r="H7" t="n">
-        <v>8.33</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>0.05</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.6</v>
+        <v>-19.4</v>
       </c>
       <c r="K7" t="n">
-        <v>-61.90476190476191</v>
+        <v>-99.74293059125964</v>
       </c>
       <c r="L7" t="n">
-        <v>34707750</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3722700</v>
+        <v>2823750</v>
       </c>
       <c r="N7" t="n">
-        <v>27052</v>
+        <v>40755</v>
       </c>
       <c r="O7" t="n">
-        <v>15868</v>
+        <v>-15546</v>
       </c>
       <c r="P7" t="n">
-        <v>141.8812589413448</v>
+        <v>-27.61229818298077</v>
       </c>
       <c r="Q7" t="n">
-        <v>2249407</v>
+        <v>11294328</v>
       </c>
       <c r="R7" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>152.8</v>
+        <v>112.85</v>
       </c>
       <c r="T7" t="n">
-        <v>-16</v>
+        <v>28.3</v>
       </c>
       <c r="U7" t="n">
-        <v>-9.478672985781991</v>
+        <v>33.47131874630396</v>
       </c>
       <c r="V7" t="n">
-        <v>7913850</v>
+        <v>3074700</v>
       </c>
       <c r="W7" t="n">
-        <v>162500</v>
+        <v>85050</v>
       </c>
       <c r="X7" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B8" t="n">
-        <v>19350</v>
+        <v>19250</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1028,75 +1028,75 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>59699</v>
+        <v>12961</v>
       </c>
       <c r="E8" t="n">
-        <v>-1850</v>
+        <v>-1295</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.005735267835383</v>
+        <v>-9.083894500561167</v>
       </c>
       <c r="G8" t="n">
-        <v>393230</v>
+        <v>109250</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>12.82</v>
       </c>
       <c r="I8" t="n">
-        <v>96.90000000000001</v>
+        <v>137.9</v>
       </c>
       <c r="J8" t="n">
-        <v>-3.449999999999989</v>
+        <v>-52.84999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.437967115097149</v>
+        <v>-27.70642201834862</v>
       </c>
       <c r="L8" t="n">
-        <v>6023850</v>
+        <v>755850</v>
       </c>
       <c r="M8" t="n">
-        <v>223250</v>
+        <v>44750</v>
       </c>
       <c r="N8" t="n">
-        <v>209935</v>
+        <v>99185</v>
       </c>
       <c r="O8" t="n">
-        <v>56680</v>
+        <v>-108304</v>
       </c>
       <c r="P8" t="n">
-        <v>36.98411144823987</v>
+        <v>-52.19746588975801</v>
       </c>
       <c r="Q8" t="n">
-        <v>4048144</v>
+        <v>2038392</v>
       </c>
       <c r="R8" t="n">
-        <v>6.72</v>
+        <v>4.97</v>
       </c>
       <c r="S8" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="T8" t="n">
-        <v>-13.2</v>
+        <v>-4.5</v>
       </c>
       <c r="U8" t="n">
-        <v>-88</v>
+        <v>-97.82608695652175</v>
       </c>
       <c r="V8" t="n">
-        <v>23040900</v>
+        <v>3005050</v>
       </c>
       <c r="W8" t="n">
-        <v>1755400</v>
+        <v>482250</v>
       </c>
       <c r="X8" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B9" t="n">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1104,75 +1104,75 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>166843</v>
+        <v>52168</v>
       </c>
       <c r="E9" t="n">
-        <v>-9383</v>
+        <v>-8427</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.324412969709351</v>
+        <v>-13.90708804356795</v>
       </c>
       <c r="G9" t="n">
-        <v>2378558</v>
+        <v>765008</v>
       </c>
       <c r="H9" t="n">
-        <v>4.22</v>
+        <v>9.43</v>
       </c>
       <c r="I9" t="n">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J9" t="n">
-        <v>-10.35</v>
+        <v>-56.15000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>-16.33780584056827</v>
+        <v>-38.95248005549774</v>
       </c>
       <c r="L9" t="n">
-        <v>10316200</v>
+        <v>1488950</v>
       </c>
       <c r="M9" t="n">
-        <v>1243150</v>
+        <v>169300</v>
       </c>
       <c r="N9" t="n">
-        <v>390429</v>
+        <v>223723</v>
       </c>
       <c r="O9" t="n">
-        <v>138416</v>
+        <v>-40940</v>
       </c>
       <c r="P9" t="n">
-        <v>54.92415073825557</v>
+        <v>-15.46872815618352</v>
       </c>
       <c r="Q9" t="n">
-        <v>9622932</v>
+        <v>4992939</v>
       </c>
       <c r="R9" t="n">
-        <v>6.36</v>
+        <v>3.18</v>
       </c>
       <c r="S9" t="n">
-        <v>7.4</v>
+        <v>0.05</v>
       </c>
       <c r="T9" t="n">
-        <v>-21.35</v>
+        <v>-8.149999999999999</v>
       </c>
       <c r="U9" t="n">
-        <v>-74.26086956521739</v>
+        <v>-99.39024390243901</v>
       </c>
       <c r="V9" t="n">
-        <v>24057100</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>2775550</v>
+        <v>1737900</v>
       </c>
       <c r="X9" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B10" t="n">
-        <v>19450</v>
+        <v>19350</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1180,75 +1180,75 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>330791</v>
+        <v>85319</v>
       </c>
       <c r="E10" t="n">
-        <v>130550</v>
+        <v>23770</v>
       </c>
       <c r="F10" t="n">
-        <v>65.19643829185831</v>
+        <v>38.61963638726868</v>
       </c>
       <c r="G10" t="n">
-        <v>4847263</v>
+        <v>1852798</v>
       </c>
       <c r="H10" t="n">
-        <v>5.35</v>
+        <v>5.49</v>
       </c>
       <c r="I10" t="n">
-        <v>21.55</v>
+        <v>38.2</v>
       </c>
       <c r="J10" t="n">
-        <v>-14.8</v>
+        <v>-62.14999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>-40.71526822558459</v>
+        <v>-61.9332336821126</v>
       </c>
       <c r="L10" t="n">
-        <v>16416500</v>
+        <v>2290700</v>
       </c>
       <c r="M10" t="n">
-        <v>2277200</v>
+        <v>512250</v>
       </c>
       <c r="N10" t="n">
-        <v>261884</v>
+        <v>219992</v>
       </c>
       <c r="O10" t="n">
-        <v>175292</v>
+        <v>66737</v>
       </c>
       <c r="P10" t="n">
-        <v>202.4344050258684</v>
+        <v>43.54637695344361</v>
       </c>
       <c r="Q10" t="n">
-        <v>9149933</v>
+        <v>10175528</v>
       </c>
       <c r="R10" t="n">
-        <v>6.59</v>
+        <v>1.13</v>
       </c>
       <c r="S10" t="n">
-        <v>26.85</v>
+        <v>0.05</v>
       </c>
       <c r="T10" t="n">
-        <v>-24.95</v>
+        <v>-14.95</v>
       </c>
       <c r="U10" t="n">
-        <v>-48.16602316602316</v>
+        <v>-99.66666666666666</v>
       </c>
       <c r="V10" t="n">
-        <v>21842700</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1256000</v>
+        <v>2520100</v>
       </c>
       <c r="X10" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B11" t="n">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1256,75 +1256,75 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>620095</v>
+        <v>416428</v>
       </c>
       <c r="E11" t="n">
-        <v>343383</v>
+        <v>240202</v>
       </c>
       <c r="F11" t="n">
-        <v>124.094003874064</v>
+        <v>136.3033831557205</v>
       </c>
       <c r="G11" t="n">
-        <v>10189978</v>
+        <v>13364953</v>
       </c>
       <c r="H11" t="n">
-        <v>6.4</v>
+        <v>1.07</v>
       </c>
       <c r="I11" t="n">
-        <v>8.050000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="J11" t="n">
-        <v>-11.4</v>
+        <v>-63.3</v>
       </c>
       <c r="K11" t="n">
-        <v>-58.61182519280204</v>
+        <v>-99.92107340173639</v>
       </c>
       <c r="L11" t="n">
-        <v>20947900</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>5670300</v>
+        <v>6243650</v>
       </c>
       <c r="N11" t="n">
-        <v>139554</v>
+        <v>263236</v>
       </c>
       <c r="O11" t="n">
-        <v>83253</v>
+        <v>11223</v>
       </c>
       <c r="P11" t="n">
-        <v>147.8712633878617</v>
+        <v>4.453341692690456</v>
       </c>
       <c r="Q11" t="n">
-        <v>9434589</v>
+        <v>26720765</v>
       </c>
       <c r="R11" t="n">
-        <v>7.77</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.2</v>
+        <v>11.85</v>
       </c>
       <c r="T11" t="n">
-        <v>-22.34999999999999</v>
+        <v>-16.9</v>
       </c>
       <c r="U11" t="n">
-        <v>-26.43406268480188</v>
+        <v>-58.78260869565217</v>
       </c>
       <c r="V11" t="n">
-        <v>15917350</v>
+        <v>9904350</v>
       </c>
       <c r="W11" t="n">
-        <v>619500</v>
+        <v>1556500</v>
       </c>
       <c r="X11" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B12" t="n">
-        <v>19550</v>
+        <v>19450</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1332,75 +1332,75 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>399389</v>
+        <v>339190</v>
       </c>
       <c r="E12" t="n">
-        <v>239627</v>
+        <v>138949</v>
       </c>
       <c r="F12" t="n">
-        <v>149.9899851028405</v>
+        <v>69.39088398479832</v>
       </c>
       <c r="G12" t="n">
-        <v>9653860</v>
+        <v>15897697</v>
       </c>
       <c r="H12" t="n">
-        <v>7.17</v>
+        <v>2.87</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>0.05</v>
       </c>
       <c r="J12" t="n">
-        <v>-6.3</v>
+        <v>-36.3</v>
       </c>
       <c r="K12" t="n">
-        <v>-69.23076923076923</v>
+        <v>-99.86244841815682</v>
       </c>
       <c r="L12" t="n">
-        <v>23747700</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>4108150</v>
+        <v>4598000</v>
       </c>
       <c r="N12" t="n">
-        <v>39163</v>
+        <v>104175</v>
       </c>
       <c r="O12" t="n">
-        <v>31736</v>
+        <v>17583</v>
       </c>
       <c r="P12" t="n">
-        <v>427.3057762218931</v>
+        <v>20.30557095343681</v>
       </c>
       <c r="Q12" t="n">
-        <v>4407534</v>
+        <v>14647888</v>
       </c>
       <c r="R12" t="n">
-        <v>9.43</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>107.55</v>
+        <v>61.6</v>
       </c>
       <c r="T12" t="n">
-        <v>-16.45</v>
+        <v>9.800000000000004</v>
       </c>
       <c r="U12" t="n">
-        <v>-13.26612903225807</v>
+        <v>18.91891891891893</v>
       </c>
       <c r="V12" t="n">
-        <v>11016000</v>
+        <v>3241800</v>
       </c>
       <c r="W12" t="n">
-        <v>187400</v>
+        <v>228150</v>
       </c>
       <c r="X12" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B13" t="n">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1408,75 +1408,75 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>391080</v>
+        <v>231908</v>
       </c>
       <c r="E13" t="n">
-        <v>140499</v>
+        <v>-44804</v>
       </c>
       <c r="F13" t="n">
-        <v>56.06929495851641</v>
+        <v>-16.19156379195698</v>
       </c>
       <c r="G13" t="n">
-        <v>9559363</v>
+        <v>16992564</v>
       </c>
       <c r="H13" t="n">
-        <v>8.33</v>
+        <v>4.53</v>
       </c>
       <c r="I13" t="n">
-        <v>1.5</v>
+        <v>0.05</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.7</v>
+        <v>-19.4</v>
       </c>
       <c r="K13" t="n">
-        <v>-64.28571428571429</v>
+        <v>-99.74293059125964</v>
       </c>
       <c r="L13" t="n">
-        <v>34874000</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3788150</v>
+        <v>2854850</v>
       </c>
       <c r="N13" t="n">
-        <v>27052</v>
+        <v>40755</v>
       </c>
       <c r="O13" t="n">
-        <v>15868</v>
+        <v>-15546</v>
       </c>
       <c r="P13" t="n">
-        <v>141.8812589413448</v>
+        <v>-27.61229818298077</v>
       </c>
       <c r="Q13" t="n">
-        <v>2246760</v>
+        <v>11290798</v>
       </c>
       <c r="R13" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.6</v>
+        <v>111.6</v>
       </c>
       <c r="T13" t="n">
-        <v>-13.20000000000002</v>
+        <v>27.05</v>
       </c>
       <c r="U13" t="n">
-        <v>-7.819905213270152</v>
+        <v>31.99290360733293</v>
       </c>
       <c r="V13" t="n">
-        <v>7947350</v>
+        <v>3067700</v>
       </c>
       <c r="W13" t="n">
-        <v>151600</v>
+        <v>103100</v>
       </c>
       <c r="X13" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B14" t="n">
-        <v>19300</v>
+        <v>19250</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1484,75 +1484,75 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53431</v>
+        <v>12961</v>
       </c>
       <c r="E14" t="n">
-        <v>-7164</v>
+        <v>-1295</v>
       </c>
       <c r="F14" t="n">
-        <v>-11.82275765327172</v>
+        <v>-9.083894500561167</v>
       </c>
       <c r="G14" t="n">
-        <v>270892</v>
+        <v>108382</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>141.75</v>
+        <v>138.2</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.400000000000006</v>
+        <v>-52.55000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.664932362122793</v>
+        <v>-27.54914809960682</v>
       </c>
       <c r="L14" t="n">
-        <v>2752950</v>
+        <v>759100</v>
       </c>
       <c r="M14" t="n">
-        <v>214400</v>
+        <v>60600</v>
       </c>
       <c r="N14" t="n">
-        <v>247936</v>
+        <v>99185</v>
       </c>
       <c r="O14" t="n">
-        <v>-16727</v>
+        <v>-108304</v>
       </c>
       <c r="P14" t="n">
-        <v>-6.320112747153928</v>
+        <v>-52.19746588975801</v>
       </c>
       <c r="Q14" t="n">
-        <v>3041856</v>
+        <v>2034218</v>
       </c>
       <c r="R14" t="n">
-        <v>8.359999999999999</v>
+        <v>6.42</v>
       </c>
       <c r="S14" t="n">
-        <v>1.1</v>
+        <v>0.05</v>
       </c>
       <c r="T14" t="n">
-        <v>-7.1</v>
+        <v>-4.55</v>
       </c>
       <c r="U14" t="n">
-        <v>-86.58536585365853</v>
+        <v>-98.91304347826087</v>
       </c>
       <c r="V14" t="n">
-        <v>31776900</v>
+        <v>3093500</v>
       </c>
       <c r="W14" t="n">
-        <v>1709200</v>
+        <v>449850</v>
       </c>
       <c r="X14" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B15" t="n">
-        <v>19350</v>
+        <v>19300</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1560,75 +1560,75 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>59572</v>
+        <v>52168</v>
       </c>
       <c r="E15" t="n">
-        <v>-1977</v>
+        <v>-8427</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.212074932167866</v>
+        <v>-13.90708804356795</v>
       </c>
       <c r="G15" t="n">
-        <v>388583</v>
+        <v>760975</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>92.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="J15" t="n">
-        <v>-7.449999999999989</v>
+        <v>-55.45</v>
       </c>
       <c r="K15" t="n">
-        <v>-7.424015944195306</v>
+        <v>-38.46687478321194</v>
       </c>
       <c r="L15" t="n">
-        <v>5993750</v>
+        <v>1555250</v>
       </c>
       <c r="M15" t="n">
-        <v>251800</v>
+        <v>176100</v>
       </c>
       <c r="N15" t="n">
-        <v>214282</v>
+        <v>223723</v>
       </c>
       <c r="O15" t="n">
-        <v>61027</v>
+        <v>-40940</v>
       </c>
       <c r="P15" t="n">
-        <v>39.82056050373561</v>
+        <v>-15.46872815618352</v>
       </c>
       <c r="Q15" t="n">
-        <v>3999328</v>
+        <v>4990014</v>
       </c>
       <c r="R15" t="n">
-        <v>6.9</v>
+        <v>4.61</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>0.05</v>
       </c>
       <c r="T15" t="n">
-        <v>-12.9</v>
+        <v>-8.149999999999999</v>
       </c>
       <c r="U15" t="n">
-        <v>-86</v>
+        <v>-99.39024390243901</v>
       </c>
       <c r="V15" t="n">
-        <v>23184300</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1841400</v>
+        <v>1274000</v>
       </c>
       <c r="X15" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B16" t="n">
-        <v>19400</v>
+        <v>19350</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1636,75 +1636,75 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>171609</v>
+        <v>85319</v>
       </c>
       <c r="E16" t="n">
-        <v>-4617</v>
+        <v>23770</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.619931224677403</v>
+        <v>38.61963638726868</v>
       </c>
       <c r="G16" t="n">
-        <v>2344638</v>
+        <v>1831055</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.85</v>
+        <v>38.8</v>
       </c>
       <c r="J16" t="n">
-        <v>-13.5</v>
+        <v>-61.55</v>
       </c>
       <c r="K16" t="n">
-        <v>-21.31018153117601</v>
+        <v>-61.33532635774789</v>
       </c>
       <c r="L16" t="n">
-        <v>10050500</v>
+        <v>2344300</v>
       </c>
       <c r="M16" t="n">
-        <v>1303300</v>
+        <v>489700</v>
       </c>
       <c r="N16" t="n">
-        <v>393574</v>
+        <v>219992</v>
       </c>
       <c r="O16" t="n">
-        <v>141561</v>
+        <v>66737</v>
       </c>
       <c r="P16" t="n">
-        <v>56.17210223282132</v>
+        <v>43.54637695344361</v>
       </c>
       <c r="Q16" t="n">
-        <v>9535744</v>
+        <v>10114741</v>
       </c>
       <c r="R16" t="n">
-        <v>6.52</v>
+        <v>2.57</v>
       </c>
       <c r="S16" t="n">
-        <v>8.85</v>
+        <v>0.05</v>
       </c>
       <c r="T16" t="n">
-        <v>-19.9</v>
+        <v>-14.95</v>
       </c>
       <c r="U16" t="n">
-        <v>-69.21739130434781</v>
+        <v>-99.66666666666666</v>
       </c>
       <c r="V16" t="n">
-        <v>24215750</v>
+        <v>3978500</v>
       </c>
       <c r="W16" t="n">
-        <v>2608600</v>
+        <v>4182300</v>
       </c>
       <c r="X16" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B17" t="n">
-        <v>19450</v>
+        <v>19400</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1712,75 +1712,75 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>330791</v>
+        <v>416428</v>
       </c>
       <c r="E17" t="n">
-        <v>130550</v>
+        <v>240202</v>
       </c>
       <c r="F17" t="n">
-        <v>65.19643829185831</v>
+        <v>136.3033831557205</v>
       </c>
       <c r="G17" t="n">
-        <v>4779455</v>
+        <v>13345530</v>
       </c>
       <c r="H17" t="n">
-        <v>5.35</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>19.85</v>
+        <v>0.05</v>
       </c>
       <c r="J17" t="n">
-        <v>-16.5</v>
+        <v>-63.3</v>
       </c>
       <c r="K17" t="n">
-        <v>-45.39202200825309</v>
+        <v>-99.92107340173639</v>
       </c>
       <c r="L17" t="n">
-        <v>16087150</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2305950</v>
+        <v>6421550</v>
       </c>
       <c r="N17" t="n">
-        <v>264441</v>
+        <v>263236</v>
       </c>
       <c r="O17" t="n">
-        <v>177849</v>
+        <v>11223</v>
       </c>
       <c r="P17" t="n">
-        <v>205.3873337028825</v>
+        <v>4.453341692690456</v>
       </c>
       <c r="Q17" t="n">
-        <v>9099497</v>
+        <v>26610231</v>
       </c>
       <c r="R17" t="n">
-        <v>6.74</v>
+        <v>2.24</v>
       </c>
       <c r="S17" t="n">
-        <v>29.7</v>
+        <v>11.35</v>
       </c>
       <c r="T17" t="n">
-        <v>-22.1</v>
+        <v>-17.4</v>
       </c>
       <c r="U17" t="n">
-        <v>-42.66409266409266</v>
+        <v>-60.52173913043478</v>
       </c>
       <c r="V17" t="n">
-        <v>21929400</v>
+        <v>12365350</v>
       </c>
       <c r="W17" t="n">
-        <v>1243250</v>
+        <v>1588900</v>
       </c>
       <c r="X17" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B18" t="n">
-        <v>19500</v>
+        <v>19450</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1788,75 +1788,75 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>607805</v>
+        <v>339190</v>
       </c>
       <c r="E18" t="n">
-        <v>331093</v>
+        <v>138949</v>
       </c>
       <c r="F18" t="n">
-        <v>119.6525629535401</v>
+        <v>69.39088398479832</v>
       </c>
       <c r="G18" t="n">
-        <v>10115520</v>
+        <v>15895327</v>
       </c>
       <c r="H18" t="n">
-        <v>6.46</v>
+        <v>1.95</v>
       </c>
       <c r="I18" t="n">
-        <v>7.25</v>
+        <v>0.05</v>
       </c>
       <c r="J18" t="n">
-        <v>-12.2</v>
+        <v>-36.3</v>
       </c>
       <c r="K18" t="n">
-        <v>-62.72493573264781</v>
+        <v>-99.86244841815682</v>
       </c>
       <c r="L18" t="n">
-        <v>20664050</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>5819100</v>
+        <v>4651850</v>
       </c>
       <c r="N18" t="n">
-        <v>141847</v>
+        <v>104175</v>
       </c>
       <c r="O18" t="n">
-        <v>85546</v>
+        <v>17583</v>
       </c>
       <c r="P18" t="n">
-        <v>151.9440152039928</v>
+        <v>20.30557095343681</v>
       </c>
       <c r="Q18" t="n">
-        <v>9409183</v>
+        <v>14631497</v>
       </c>
       <c r="R18" t="n">
-        <v>8.109999999999999</v>
+        <v>6.59</v>
       </c>
       <c r="S18" t="n">
-        <v>67.59999999999999</v>
+        <v>60.85</v>
       </c>
       <c r="T18" t="n">
-        <v>-16.95</v>
+        <v>9.050000000000004</v>
       </c>
       <c r="U18" t="n">
-        <v>-20.04730928444708</v>
+        <v>17.47104247104248</v>
       </c>
       <c r="V18" t="n">
-        <v>16042900</v>
+        <v>3793700</v>
       </c>
       <c r="W18" t="n">
-        <v>592900</v>
+        <v>221600</v>
       </c>
       <c r="X18" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B19" t="n">
-        <v>19550</v>
+        <v>19500</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1864,75 +1864,75 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>395444</v>
+        <v>231908</v>
       </c>
       <c r="E19" t="n">
-        <v>235682</v>
+        <v>-44804</v>
       </c>
       <c r="F19" t="n">
-        <v>147.5206870219452</v>
+        <v>-16.19156379195698</v>
       </c>
       <c r="G19" t="n">
-        <v>9608299</v>
+        <v>16985581</v>
       </c>
       <c r="H19" t="n">
-        <v>7.32</v>
+        <v>3.69</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>0.05</v>
       </c>
       <c r="J19" t="n">
-        <v>-6.399999999999999</v>
+        <v>-19.4</v>
       </c>
       <c r="K19" t="n">
-        <v>-70.32967032967032</v>
+        <v>-99.74293059125964</v>
       </c>
       <c r="L19" t="n">
-        <v>23519000</v>
+        <v>125800</v>
       </c>
       <c r="M19" t="n">
-        <v>4089200</v>
+        <v>2934000</v>
       </c>
       <c r="N19" t="n">
-        <v>39876</v>
+        <v>40755</v>
       </c>
       <c r="O19" t="n">
-        <v>32449</v>
+        <v>-15546</v>
       </c>
       <c r="P19" t="n">
-        <v>436.9058839369867</v>
+        <v>-27.61229818298077</v>
       </c>
       <c r="Q19" t="n">
-        <v>4400659</v>
+        <v>11284814</v>
       </c>
       <c r="R19" t="n">
-        <v>9.76</v>
+        <v>10.36</v>
       </c>
       <c r="S19" t="n">
-        <v>111.65</v>
+        <v>110.85</v>
       </c>
       <c r="T19" t="n">
-        <v>-12.34999999999999</v>
+        <v>26.3</v>
       </c>
       <c r="U19" t="n">
-        <v>-9.959677419354835</v>
+        <v>31.10585452395032</v>
       </c>
       <c r="V19" t="n">
-        <v>11036050</v>
+        <v>3134750</v>
       </c>
       <c r="W19" t="n">
-        <v>188900</v>
+        <v>108200</v>
       </c>
       <c r="X19" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B20" t="n">
-        <v>19300</v>
+        <v>19250</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1940,75 +1940,75 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>53431</v>
+        <v>12691</v>
       </c>
       <c r="E20" t="n">
-        <v>-7164</v>
+        <v>-1565</v>
       </c>
       <c r="F20" t="n">
-        <v>-11.82275765327172</v>
+        <v>-10.97783389450056</v>
       </c>
       <c r="G20" t="n">
-        <v>267989</v>
+        <v>107224</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>148.9</v>
+        <v>136.95</v>
       </c>
       <c r="J20" t="n">
-        <v>4.75</v>
+        <v>-53.80000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>3.295178633368019</v>
+        <v>-28.20445609436436</v>
       </c>
       <c r="L20" t="n">
-        <v>2763900</v>
+        <v>765300</v>
       </c>
       <c r="M20" t="n">
-        <v>197800</v>
+        <v>56950</v>
       </c>
       <c r="N20" t="n">
-        <v>247936</v>
+        <v>99185</v>
       </c>
       <c r="O20" t="n">
-        <v>-16727</v>
+        <v>-108304</v>
       </c>
       <c r="P20" t="n">
-        <v>-6.320112747153928</v>
+        <v>-52.19746588975801</v>
       </c>
       <c r="Q20" t="n">
-        <v>3011891</v>
+        <v>2030107</v>
       </c>
       <c r="R20" t="n">
-        <v>8.359999999999999</v>
+        <v>6.42</v>
       </c>
       <c r="S20" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="T20" t="n">
-        <v>-7.149999999999999</v>
+        <v>-4.5</v>
       </c>
       <c r="U20" t="n">
-        <v>-87.19512195121951</v>
+        <v>-97.82608695652175</v>
       </c>
       <c r="V20" t="n">
-        <v>31847100</v>
+        <v>3405650</v>
       </c>
       <c r="W20" t="n">
-        <v>2017400</v>
+        <v>352650</v>
       </c>
       <c r="X20" t="n">
-        <v>19448.5</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B21" t="n">
-        <v>19350</v>
+        <v>19300</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2016,75 +2016,75 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>59572</v>
+        <v>52168</v>
       </c>
       <c r="E21" t="n">
-        <v>-1977</v>
+        <v>-8427</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.212074932167866</v>
+        <v>-13.90708804356795</v>
       </c>
       <c r="G21" t="n">
-        <v>383851</v>
+        <v>756820</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>100</v>
+        <v>87.95</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.3499999999999943</v>
+        <v>-56.2</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.348779272546083</v>
+        <v>-38.9871661463753</v>
       </c>
       <c r="L21" t="n">
-        <v>6012050</v>
+        <v>2079450</v>
       </c>
       <c r="M21" t="n">
-        <v>232200</v>
+        <v>172450</v>
       </c>
       <c r="N21" t="n">
-        <v>214282</v>
+        <v>226834</v>
       </c>
       <c r="O21" t="n">
-        <v>61027</v>
+        <v>-37829</v>
       </c>
       <c r="P21" t="n">
-        <v>39.82056050373561</v>
+        <v>-14.29327106546816</v>
       </c>
       <c r="Q21" t="n">
-        <v>3973524</v>
+        <v>4955055</v>
       </c>
       <c r="R21" t="n">
-        <v>6.9</v>
+        <v>4.61</v>
       </c>
       <c r="S21" t="n">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="T21" t="n">
-        <v>-13.1</v>
+        <v>-8.1</v>
       </c>
       <c r="U21" t="n">
-        <v>-87.33333333333333</v>
+        <v>-98.78048780487805</v>
       </c>
       <c r="V21" t="n">
-        <v>23165950</v>
+        <v>2050850</v>
       </c>
       <c r="W21" t="n">
-        <v>1827500</v>
+        <v>2376450</v>
       </c>
       <c r="X21" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B22" t="n">
-        <v>19400</v>
+        <v>19350</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2092,75 +2092,75 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>171609</v>
+        <v>85319</v>
       </c>
       <c r="E22" t="n">
-        <v>-4617</v>
+        <v>23770</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.619931224677403</v>
+        <v>38.61963638726868</v>
       </c>
       <c r="G22" t="n">
-        <v>2312753</v>
+        <v>1812229</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="J22" t="n">
-        <v>-7.350000000000001</v>
+        <v>-62.34999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>-11.60220994475138</v>
+        <v>-62.13253612356752</v>
       </c>
       <c r="L22" t="n">
-        <v>10208950</v>
+        <v>3434400</v>
       </c>
       <c r="M22" t="n">
-        <v>1226400</v>
+        <v>468750</v>
       </c>
       <c r="N22" t="n">
-        <v>393574</v>
+        <v>215610</v>
       </c>
       <c r="O22" t="n">
-        <v>141561</v>
+        <v>62355</v>
       </c>
       <c r="P22" t="n">
-        <v>56.17210223282132</v>
+        <v>40.68709014387785</v>
       </c>
       <c r="Q22" t="n">
-        <v>9465211</v>
+        <v>10085139</v>
       </c>
       <c r="R22" t="n">
-        <v>6.52</v>
+        <v>2.57</v>
       </c>
       <c r="S22" t="n">
-        <v>7.25</v>
+        <v>0.1</v>
       </c>
       <c r="T22" t="n">
-        <v>-21.5</v>
+        <v>-14.9</v>
       </c>
       <c r="U22" t="n">
-        <v>-74.78260869565217</v>
+        <v>-99.33333333333334</v>
       </c>
       <c r="V22" t="n">
-        <v>24132200</v>
+        <v>5629300</v>
       </c>
       <c r="W22" t="n">
-        <v>2909500</v>
+        <v>3648600</v>
       </c>
       <c r="X22" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B23" t="n">
-        <v>19450</v>
+        <v>19400</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2168,75 +2168,75 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>330791</v>
+        <v>456347</v>
       </c>
       <c r="E23" t="n">
-        <v>130550</v>
+        <v>280121</v>
       </c>
       <c r="F23" t="n">
-        <v>65.19643829185831</v>
+        <v>158.9555457197008</v>
       </c>
       <c r="G23" t="n">
-        <v>4715563</v>
+        <v>13322321</v>
       </c>
       <c r="H23" t="n">
-        <v>5.35</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>23.7</v>
+        <v>0.05</v>
       </c>
       <c r="J23" t="n">
-        <v>-12.65</v>
+        <v>-63.3</v>
       </c>
       <c r="K23" t="n">
-        <v>-34.80055020632738</v>
+        <v>-99.92107340173639</v>
       </c>
       <c r="L23" t="n">
-        <v>16603550</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2184800</v>
+        <v>6853950</v>
       </c>
       <c r="N23" t="n">
-        <v>264441</v>
+        <v>319712</v>
       </c>
       <c r="O23" t="n">
-        <v>177849</v>
+        <v>67699</v>
       </c>
       <c r="P23" t="n">
-        <v>205.3873337028825</v>
+        <v>26.86329673469226</v>
       </c>
       <c r="Q23" t="n">
-        <v>9046371</v>
+        <v>26510651</v>
       </c>
       <c r="R23" t="n">
-        <v>6.74</v>
+        <v>2.24</v>
       </c>
       <c r="S23" t="n">
-        <v>24.75</v>
+        <v>12</v>
       </c>
       <c r="T23" t="n">
-        <v>-27.05</v>
+        <v>-16.75</v>
       </c>
       <c r="U23" t="n">
-        <v>-52.22007722007722</v>
+        <v>-58.26086956521739</v>
       </c>
       <c r="V23" t="n">
-        <v>21806050</v>
+        <v>13343250</v>
       </c>
       <c r="W23" t="n">
-        <v>1506950</v>
+        <v>1723850</v>
       </c>
       <c r="X23" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B24" t="n">
-        <v>19500</v>
+        <v>19450</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2244,75 +2244,75 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>607805</v>
+        <v>368518</v>
       </c>
       <c r="E24" t="n">
-        <v>331093</v>
+        <v>168277</v>
       </c>
       <c r="F24" t="n">
-        <v>119.6525629535401</v>
+        <v>84.03723513166634</v>
       </c>
       <c r="G24" t="n">
-        <v>10040833</v>
+        <v>15892419</v>
       </c>
       <c r="H24" t="n">
-        <v>6.46</v>
+        <v>1.95</v>
       </c>
       <c r="I24" t="n">
-        <v>9.1</v>
+        <v>0.05</v>
       </c>
       <c r="J24" t="n">
-        <v>-10.35</v>
+        <v>-36.3</v>
       </c>
       <c r="K24" t="n">
-        <v>-53.2133676092545</v>
+        <v>-99.86244841815682</v>
       </c>
       <c r="L24" t="n">
-        <v>21116700</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>5577750</v>
+        <v>4798200</v>
       </c>
       <c r="N24" t="n">
-        <v>141847</v>
+        <v>104175</v>
       </c>
       <c r="O24" t="n">
-        <v>85546</v>
+        <v>17583</v>
       </c>
       <c r="P24" t="n">
-        <v>151.9440152039928</v>
+        <v>20.30557095343681</v>
       </c>
       <c r="Q24" t="n">
-        <v>9383528</v>
+        <v>14616063</v>
       </c>
       <c r="R24" t="n">
-        <v>8.109999999999999</v>
+        <v>6.59</v>
       </c>
       <c r="S24" t="n">
-        <v>60.55</v>
+        <v>62</v>
       </c>
       <c r="T24" t="n">
-        <v>-24</v>
+        <v>10.2</v>
       </c>
       <c r="U24" t="n">
-        <v>-28.38557066824364</v>
+        <v>19.6911196911197</v>
       </c>
       <c r="V24" t="n">
-        <v>15927450</v>
+        <v>3903150</v>
       </c>
       <c r="W24" t="n">
-        <v>752700</v>
+        <v>236850</v>
       </c>
       <c r="X24" t="n">
-        <v>19448.5</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B25" t="n">
-        <v>19550</v>
+        <v>19500</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2320,75 +2320,75 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>395444</v>
+        <v>231908</v>
       </c>
       <c r="E25" t="n">
-        <v>235682</v>
+        <v>-44804</v>
       </c>
       <c r="F25" t="n">
-        <v>147.5206870219452</v>
+        <v>-16.19156379195698</v>
       </c>
       <c r="G25" t="n">
-        <v>9547365</v>
+        <v>16975033</v>
       </c>
       <c r="H25" t="n">
-        <v>7.32</v>
+        <v>3.69</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>0.1</v>
       </c>
       <c r="J25" t="n">
-        <v>-5.899999999999999</v>
+        <v>-19.35</v>
       </c>
       <c r="K25" t="n">
-        <v>-64.83516483516483</v>
+        <v>-99.48586118251927</v>
       </c>
       <c r="L25" t="n">
-        <v>23671550</v>
+        <v>471100</v>
       </c>
       <c r="M25" t="n">
-        <v>4068600</v>
+        <v>3084200</v>
       </c>
       <c r="N25" t="n">
-        <v>39876</v>
+        <v>43077</v>
       </c>
       <c r="O25" t="n">
-        <v>32449</v>
+        <v>-13224</v>
       </c>
       <c r="P25" t="n">
-        <v>436.9058839369867</v>
+        <v>-23.48803751265519</v>
       </c>
       <c r="Q25" t="n">
-        <v>4395324</v>
+        <v>11279158</v>
       </c>
       <c r="R25" t="n">
-        <v>9.76</v>
+        <v>10.36</v>
       </c>
       <c r="S25" t="n">
-        <v>104.95</v>
+        <v>111.85</v>
       </c>
       <c r="T25" t="n">
-        <v>-19.05</v>
+        <v>27.3</v>
       </c>
       <c r="U25" t="n">
-        <v>-15.36290322580645</v>
+        <v>32.28858663512714</v>
       </c>
       <c r="V25" t="n">
-        <v>11025700</v>
+        <v>3757600</v>
       </c>
       <c r="W25" t="n">
-        <v>217500</v>
+        <v>113000</v>
       </c>
       <c r="X25" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B26" t="n">
-        <v>19300</v>
+        <v>19250</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2396,75 +2396,75 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>53431</v>
+        <v>12691</v>
       </c>
       <c r="E26" t="n">
-        <v>-7164</v>
+        <v>-1565</v>
       </c>
       <c r="F26" t="n">
-        <v>-11.82275765327172</v>
+        <v>-10.97783389450056</v>
       </c>
       <c r="G26" t="n">
-        <v>267989</v>
+        <v>106838</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>148.9</v>
+        <v>137.4</v>
       </c>
       <c r="J26" t="n">
-        <v>4.75</v>
+        <v>-53.34999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>3.295178633368019</v>
+        <v>-27.96854521625163</v>
       </c>
       <c r="L26" t="n">
-        <v>2763900</v>
+        <v>774350</v>
       </c>
       <c r="M26" t="n">
-        <v>197800</v>
+        <v>52600</v>
       </c>
       <c r="N26" t="n">
-        <v>247936</v>
+        <v>102855</v>
       </c>
       <c r="O26" t="n">
-        <v>-16727</v>
+        <v>-104634</v>
       </c>
       <c r="P26" t="n">
-        <v>-6.320112747153928</v>
+        <v>-50.42869742492373</v>
       </c>
       <c r="Q26" t="n">
-        <v>3011891</v>
+        <v>2029246</v>
       </c>
       <c r="R26" t="n">
-        <v>8.42</v>
+        <v>6.42</v>
       </c>
       <c r="S26" t="n">
-        <v>1.05</v>
+        <v>0.05</v>
       </c>
       <c r="T26" t="n">
-        <v>-7.149999999999999</v>
+        <v>-4.55</v>
       </c>
       <c r="U26" t="n">
-        <v>-87.19512195121951</v>
+        <v>-98.91304347826087</v>
       </c>
       <c r="V26" t="n">
-        <v>31847100</v>
+        <v>3458250</v>
       </c>
       <c r="W26" t="n">
-        <v>2017400</v>
+        <v>368450</v>
       </c>
       <c r="X26" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B27" t="n">
-        <v>19350</v>
+        <v>19300</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2472,75 +2472,75 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>59572</v>
+        <v>52840</v>
       </c>
       <c r="E27" t="n">
-        <v>-1977</v>
+        <v>-7755</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.212074932167866</v>
+        <v>-12.79808565063124</v>
       </c>
       <c r="G27" t="n">
-        <v>383851</v>
+        <v>753567</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>100</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.3499999999999943</v>
+        <v>-56.55000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.348779272546083</v>
+        <v>-39.22996878251821</v>
       </c>
       <c r="L27" t="n">
-        <v>6012050</v>
+        <v>2073750</v>
       </c>
       <c r="M27" t="n">
-        <v>232200</v>
+        <v>186550</v>
       </c>
       <c r="N27" t="n">
-        <v>214282</v>
+        <v>226834</v>
       </c>
       <c r="O27" t="n">
-        <v>61027</v>
+        <v>-37829</v>
       </c>
       <c r="P27" t="n">
-        <v>39.82056050373561</v>
+        <v>-14.29327106546816</v>
       </c>
       <c r="Q27" t="n">
-        <v>3973524</v>
+        <v>4945453</v>
       </c>
       <c r="R27" t="n">
-        <v>6.93</v>
+        <v>4.61</v>
       </c>
       <c r="S27" t="n">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="T27" t="n">
-        <v>-13.1</v>
+        <v>-8.1</v>
       </c>
       <c r="U27" t="n">
-        <v>-87.33333333333333</v>
+        <v>-98.78048780487805</v>
       </c>
       <c r="V27" t="n">
-        <v>23165950</v>
+        <v>3287200</v>
       </c>
       <c r="W27" t="n">
-        <v>1827500</v>
+        <v>2481400</v>
       </c>
       <c r="X27" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B28" t="n">
-        <v>19400</v>
+        <v>19350</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2548,75 +2548,75 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>171609</v>
+        <v>86993</v>
       </c>
       <c r="E28" t="n">
-        <v>-4617</v>
+        <v>25444</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.619931224677403</v>
+        <v>41.3394206242181</v>
       </c>
       <c r="G28" t="n">
-        <v>2312753</v>
+        <v>1796566</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>56</v>
+        <v>37.7</v>
       </c>
       <c r="J28" t="n">
-        <v>-7.350000000000001</v>
+        <v>-62.64999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>-11.60220994475138</v>
+        <v>-62.43148978574987</v>
       </c>
       <c r="L28" t="n">
-        <v>10208950</v>
+        <v>4214200</v>
       </c>
       <c r="M28" t="n">
-        <v>1226400</v>
+        <v>457500</v>
       </c>
       <c r="N28" t="n">
-        <v>393574</v>
+        <v>215610</v>
       </c>
       <c r="O28" t="n">
-        <v>141561</v>
+        <v>62355</v>
       </c>
       <c r="P28" t="n">
-        <v>56.17210223282132</v>
+        <v>40.68709014387785</v>
       </c>
       <c r="Q28" t="n">
-        <v>9465211</v>
+        <v>10029185</v>
       </c>
       <c r="R28" t="n">
-        <v>6.52</v>
+        <v>2.57</v>
       </c>
       <c r="S28" t="n">
-        <v>7.25</v>
+        <v>0.1</v>
       </c>
       <c r="T28" t="n">
-        <v>-21.5</v>
+        <v>-14.9</v>
       </c>
       <c r="U28" t="n">
-        <v>-74.78260869565217</v>
+        <v>-99.33333333333334</v>
       </c>
       <c r="V28" t="n">
-        <v>24132200</v>
+        <v>8634000</v>
       </c>
       <c r="W28" t="n">
-        <v>2909500</v>
+        <v>2715950</v>
       </c>
       <c r="X28" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B29" t="n">
-        <v>19450</v>
+        <v>19400</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2624,75 +2624,75 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>330791</v>
+        <v>456347</v>
       </c>
       <c r="E29" t="n">
-        <v>130550</v>
+        <v>280121</v>
       </c>
       <c r="F29" t="n">
-        <v>65.19643829185831</v>
+        <v>158.9555457197008</v>
       </c>
       <c r="G29" t="n">
-        <v>4715563</v>
+        <v>13302306</v>
       </c>
       <c r="H29" t="n">
-        <v>5.35</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>23.7</v>
+        <v>0.05</v>
       </c>
       <c r="J29" t="n">
-        <v>-12.65</v>
+        <v>-63.3</v>
       </c>
       <c r="K29" t="n">
-        <v>-34.80055020632738</v>
+        <v>-99.92107340173639</v>
       </c>
       <c r="L29" t="n">
-        <v>16603550</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>2184800</v>
+        <v>6298000</v>
       </c>
       <c r="N29" t="n">
-        <v>264441</v>
+        <v>319712</v>
       </c>
       <c r="O29" t="n">
-        <v>177849</v>
+        <v>67699</v>
       </c>
       <c r="P29" t="n">
-        <v>205.3873337028825</v>
+        <v>26.86329673469226</v>
       </c>
       <c r="Q29" t="n">
-        <v>9046371</v>
+        <v>26419386</v>
       </c>
       <c r="R29" t="n">
-        <v>6.74</v>
+        <v>2.24</v>
       </c>
       <c r="S29" t="n">
-        <v>24.75</v>
+        <v>12.1</v>
       </c>
       <c r="T29" t="n">
-        <v>-27.05</v>
+        <v>-16.65</v>
       </c>
       <c r="U29" t="n">
-        <v>-52.22007722007722</v>
+        <v>-57.91304347826086</v>
       </c>
       <c r="V29" t="n">
-        <v>21806050</v>
+        <v>15161650</v>
       </c>
       <c r="W29" t="n">
-        <v>1506950</v>
+        <v>1685950</v>
       </c>
       <c r="X29" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B30" t="n">
-        <v>19500</v>
+        <v>19450</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2700,75 +2700,75 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>607805</v>
+        <v>368518</v>
       </c>
       <c r="E30" t="n">
-        <v>331093</v>
+        <v>168277</v>
       </c>
       <c r="F30" t="n">
-        <v>119.6525629535401</v>
+        <v>84.03723513166634</v>
       </c>
       <c r="G30" t="n">
-        <v>10040833</v>
+        <v>15885025</v>
       </c>
       <c r="H30" t="n">
-        <v>6.46</v>
+        <v>1.95</v>
       </c>
       <c r="I30" t="n">
-        <v>9.1</v>
+        <v>0.05</v>
       </c>
       <c r="J30" t="n">
-        <v>-10.35</v>
+        <v>-36.3</v>
       </c>
       <c r="K30" t="n">
-        <v>-53.2133676092545</v>
+        <v>-99.86244841815682</v>
       </c>
       <c r="L30" t="n">
-        <v>21116700</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>5577750</v>
+        <v>4955600</v>
       </c>
       <c r="N30" t="n">
-        <v>141847</v>
+        <v>109377</v>
       </c>
       <c r="O30" t="n">
-        <v>85546</v>
+        <v>22785</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9440152039928</v>
+        <v>26.31305432372505</v>
       </c>
       <c r="Q30" t="n">
-        <v>9383528</v>
+        <v>14597153</v>
       </c>
       <c r="R30" t="n">
-        <v>8.109999999999999</v>
+        <v>6.59</v>
       </c>
       <c r="S30" t="n">
-        <v>60.55</v>
+        <v>62.15</v>
       </c>
       <c r="T30" t="n">
-        <v>-24</v>
+        <v>10.35</v>
       </c>
       <c r="U30" t="n">
-        <v>-28.38557066824364</v>
+        <v>19.98069498069498</v>
       </c>
       <c r="V30" t="n">
-        <v>15927450</v>
+        <v>5093950</v>
       </c>
       <c r="W30" t="n">
-        <v>752700</v>
+        <v>211350</v>
       </c>
       <c r="X30" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B31" t="n">
-        <v>19550</v>
+        <v>19500</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2776,72 +2776,72 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>395444</v>
+        <v>241325</v>
       </c>
       <c r="E31" t="n">
-        <v>235682</v>
+        <v>-35387</v>
       </c>
       <c r="F31" t="n">
-        <v>147.5206870219452</v>
+        <v>-12.78838648125127</v>
       </c>
       <c r="G31" t="n">
-        <v>9547365</v>
+        <v>16950521</v>
       </c>
       <c r="H31" t="n">
-        <v>7.32</v>
+        <v>3.69</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>0.05</v>
       </c>
       <c r="J31" t="n">
-        <v>-5.899999999999999</v>
+        <v>-19.4</v>
       </c>
       <c r="K31" t="n">
-        <v>-64.83516483516483</v>
+        <v>-99.74293059125964</v>
       </c>
       <c r="L31" t="n">
-        <v>23671550</v>
+        <v>2561750</v>
       </c>
       <c r="M31" t="n">
-        <v>4068600</v>
+        <v>3075500</v>
       </c>
       <c r="N31" t="n">
-        <v>39876</v>
+        <v>43077</v>
       </c>
       <c r="O31" t="n">
-        <v>32449</v>
+        <v>-13224</v>
       </c>
       <c r="P31" t="n">
-        <v>436.9058839369867</v>
+        <v>-23.48803751265519</v>
       </c>
       <c r="Q31" t="n">
-        <v>4395324</v>
+        <v>11270600</v>
       </c>
       <c r="R31" t="n">
-        <v>9.76</v>
+        <v>10.36</v>
       </c>
       <c r="S31" t="n">
-        <v>104.95</v>
+        <v>113.2</v>
       </c>
       <c r="T31" t="n">
-        <v>-19.05</v>
+        <v>28.65000000000001</v>
       </c>
       <c r="U31" t="n">
-        <v>-15.36290322580645</v>
+        <v>33.88527498521586</v>
       </c>
       <c r="V31" t="n">
-        <v>11025700</v>
+        <v>4589250</v>
       </c>
       <c r="W31" t="n">
-        <v>217500</v>
+        <v>100900</v>
       </c>
       <c r="X31" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B32" t="n">
         <v>19350</v>
@@ -2852,72 +2852,72 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>59424</v>
+        <v>59699</v>
       </c>
       <c r="E32" t="n">
-        <v>-2125</v>
+        <v>-1850</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.452533753594697</v>
+        <v>-3.005735267835383</v>
       </c>
       <c r="G32" t="n">
-        <v>379364</v>
+        <v>397627</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>102.1</v>
+        <v>100.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.75</v>
+        <v>0.1500000000000057</v>
       </c>
       <c r="K32" t="n">
-        <v>1.743896362730444</v>
+        <v>0.1494768310911865</v>
       </c>
       <c r="L32" t="n">
-        <v>6030550</v>
+        <v>6023200</v>
       </c>
       <c r="M32" t="n">
-        <v>242400</v>
+        <v>228550</v>
       </c>
       <c r="N32" t="n">
-        <v>216316</v>
+        <v>209935</v>
       </c>
       <c r="O32" t="n">
-        <v>63061</v>
+        <v>56680</v>
       </c>
       <c r="P32" t="n">
-        <v>41.14776026883299</v>
+        <v>36.98411144823987</v>
       </c>
       <c r="Q32" t="n">
-        <v>3927507</v>
+        <v>4072879</v>
       </c>
       <c r="R32" t="n">
-        <v>6.9</v>
+        <v>6.72</v>
       </c>
       <c r="S32" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="T32" t="n">
-        <v>-12.95</v>
+        <v>-13.3</v>
       </c>
       <c r="U32" t="n">
-        <v>-86.33333333333333</v>
+        <v>-88.66666666666667</v>
       </c>
       <c r="V32" t="n">
-        <v>23010200</v>
+        <v>23009100</v>
       </c>
       <c r="W32" t="n">
-        <v>1799350</v>
+        <v>1865650</v>
       </c>
       <c r="X32" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B33" t="n">
         <v>19400</v>
@@ -2928,72 +2928,72 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>166472</v>
+        <v>166843</v>
       </c>
       <c r="E33" t="n">
-        <v>-9754</v>
+        <v>-9383</v>
       </c>
       <c r="F33" t="n">
-        <v>-5.534938090860599</v>
+        <v>-5.324412969709351</v>
       </c>
       <c r="G33" t="n">
-        <v>2276751</v>
+        <v>2404941</v>
       </c>
       <c r="H33" t="n">
-        <v>4.1</v>
+        <v>4.22</v>
       </c>
       <c r="I33" t="n">
-        <v>58</v>
+        <v>55.65</v>
       </c>
       <c r="J33" t="n">
-        <v>-5.350000000000001</v>
+        <v>-7.700000000000003</v>
       </c>
       <c r="K33" t="n">
-        <v>-8.44514601420679</v>
+        <v>-12.15469613259669</v>
       </c>
       <c r="L33" t="n">
-        <v>10325550</v>
+        <v>10315800</v>
       </c>
       <c r="M33" t="n">
-        <v>1166000</v>
+        <v>1264550</v>
       </c>
       <c r="N33" t="n">
-        <v>385240</v>
+        <v>390429</v>
       </c>
       <c r="O33" t="n">
-        <v>133227</v>
+        <v>138416</v>
       </c>
       <c r="P33" t="n">
-        <v>52.86512997345375</v>
+        <v>54.92415073825557</v>
       </c>
       <c r="Q33" t="n">
-        <v>9368443</v>
+        <v>9694675</v>
       </c>
       <c r="R33" t="n">
-        <v>6.52</v>
+        <v>6.36</v>
       </c>
       <c r="S33" t="n">
-        <v>7.55</v>
+        <v>6.9</v>
       </c>
       <c r="T33" t="n">
-        <v>-21.2</v>
+        <v>-21.85</v>
       </c>
       <c r="U33" t="n">
-        <v>-73.73913043478261</v>
+        <v>-76</v>
       </c>
       <c r="V33" t="n">
-        <v>24016200</v>
+        <v>24012950</v>
       </c>
       <c r="W33" t="n">
-        <v>2915500</v>
+        <v>2977000</v>
       </c>
       <c r="X33" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B34" t="n">
         <v>19450</v>
@@ -3004,72 +3004,72 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>330015</v>
+        <v>337506</v>
       </c>
       <c r="E34" t="n">
-        <v>129774</v>
+        <v>137265</v>
       </c>
       <c r="F34" t="n">
-        <v>64.80890526915067</v>
+        <v>68.54989737366473</v>
       </c>
       <c r="G34" t="n">
-        <v>4647580</v>
+        <v>4912695</v>
       </c>
       <c r="H34" t="n">
-        <v>5.35</v>
+        <v>5.41</v>
       </c>
       <c r="I34" t="n">
-        <v>25.1</v>
+        <v>23.25</v>
       </c>
       <c r="J34" t="n">
-        <v>-11.25</v>
+        <v>-13.1</v>
       </c>
       <c r="K34" t="n">
-        <v>-30.94910591471802</v>
+        <v>-36.0385144429161</v>
       </c>
       <c r="L34" t="n">
-        <v>16764800</v>
+        <v>16441550</v>
       </c>
       <c r="M34" t="n">
-        <v>2057100</v>
+        <v>2314700</v>
       </c>
       <c r="N34" t="n">
-        <v>263786</v>
+        <v>261884</v>
       </c>
       <c r="O34" t="n">
-        <v>177194</v>
+        <v>175292</v>
       </c>
       <c r="P34" t="n">
-        <v>204.6309127864006</v>
+        <v>202.4344050258684</v>
       </c>
       <c r="Q34" t="n">
-        <v>8991551</v>
+        <v>9201189</v>
       </c>
       <c r="R34" t="n">
-        <v>6.74</v>
+        <v>6.59</v>
       </c>
       <c r="S34" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="T34" t="n">
-        <v>-27.4</v>
+        <v>-27.5</v>
       </c>
       <c r="U34" t="n">
-        <v>-52.8957528957529</v>
+        <v>-53.08880308880308</v>
       </c>
       <c r="V34" t="n">
-        <v>21773950</v>
+        <v>21770850</v>
       </c>
       <c r="W34" t="n">
-        <v>1556700</v>
+        <v>1345800</v>
       </c>
       <c r="X34" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B35" t="n">
         <v>19500</v>
@@ -3080,72 +3080,72 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>603360</v>
+        <v>620095</v>
       </c>
       <c r="E35" t="n">
-        <v>326648</v>
+        <v>343383</v>
       </c>
       <c r="F35" t="n">
-        <v>118.0461996588511</v>
+        <v>124.094003874064</v>
       </c>
       <c r="G35" t="n">
-        <v>9965288</v>
+        <v>10249147</v>
       </c>
       <c r="H35" t="n">
-        <v>6.46</v>
+        <v>6.4</v>
       </c>
       <c r="I35" t="n">
-        <v>9.6</v>
+        <v>8.75</v>
       </c>
       <c r="J35" t="n">
-        <v>-9.85</v>
+        <v>-10.7</v>
       </c>
       <c r="K35" t="n">
-        <v>-50.6426735218509</v>
+        <v>-55.01285347043702</v>
       </c>
       <c r="L35" t="n">
-        <v>21273200</v>
+        <v>21022250</v>
       </c>
       <c r="M35" t="n">
-        <v>5514450</v>
+        <v>5645100</v>
       </c>
       <c r="N35" t="n">
-        <v>141808</v>
+        <v>139554</v>
       </c>
       <c r="O35" t="n">
-        <v>85507</v>
+        <v>83253</v>
       </c>
       <c r="P35" t="n">
-        <v>151.8747446759383</v>
+        <v>147.8712633878617</v>
       </c>
       <c r="Q35" t="n">
-        <v>9358733</v>
+        <v>9456780</v>
       </c>
       <c r="R35" t="n">
-        <v>8.109999999999999</v>
+        <v>7.77</v>
       </c>
       <c r="S35" t="n">
-        <v>59.4</v>
+        <v>60.15</v>
       </c>
       <c r="T35" t="n">
-        <v>-25.15</v>
+        <v>-24.4</v>
       </c>
       <c r="U35" t="n">
-        <v>-29.74571259609699</v>
+        <v>-28.85866351271437</v>
       </c>
       <c r="V35" t="n">
-        <v>15939750</v>
+        <v>15911100</v>
       </c>
       <c r="W35" t="n">
-        <v>764050</v>
+        <v>681750</v>
       </c>
       <c r="X35" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B36" t="n">
         <v>19550</v>
@@ -3156,72 +3156,72 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>398842</v>
+        <v>399389</v>
       </c>
       <c r="E36" t="n">
-        <v>239080</v>
+        <v>239627</v>
       </c>
       <c r="F36" t="n">
-        <v>149.6476008061992</v>
+        <v>149.9899851028405</v>
       </c>
       <c r="G36" t="n">
-        <v>9488233</v>
+        <v>9691905</v>
       </c>
       <c r="H36" t="n">
-        <v>7.32</v>
+        <v>7.17</v>
       </c>
       <c r="I36" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="J36" t="n">
-        <v>-5.649999999999999</v>
+        <v>-6.149999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>-62.08791208791209</v>
+        <v>-67.58241758241758</v>
       </c>
       <c r="L36" t="n">
-        <v>23730050</v>
+        <v>23729300</v>
       </c>
       <c r="M36" t="n">
-        <v>3972450</v>
+        <v>4158000</v>
       </c>
       <c r="N36" t="n">
-        <v>38614</v>
+        <v>39163</v>
       </c>
       <c r="O36" t="n">
-        <v>31187</v>
+        <v>31736</v>
       </c>
       <c r="P36" t="n">
-        <v>419.913827925138</v>
+        <v>427.3057762218931</v>
       </c>
       <c r="Q36" t="n">
-        <v>4390670</v>
+        <v>4412494</v>
       </c>
       <c r="R36" t="n">
-        <v>9.76</v>
+        <v>9.43</v>
       </c>
       <c r="S36" t="n">
-        <v>103.35</v>
+        <v>104.2</v>
       </c>
       <c r="T36" t="n">
-        <v>-20.65000000000001</v>
+        <v>-19.8</v>
       </c>
       <c r="U36" t="n">
-        <v>-16.65322580645162</v>
+        <v>-15.96774193548387</v>
       </c>
       <c r="V36" t="n">
-        <v>11028800</v>
+        <v>10995700</v>
       </c>
       <c r="W36" t="n">
-        <v>214800</v>
+        <v>198500</v>
       </c>
       <c r="X36" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B37" t="n">
         <v>19600</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>417139</v>
+        <v>391080</v>
       </c>
       <c r="E37" t="n">
-        <v>166558</v>
+        <v>140499</v>
       </c>
       <c r="F37" t="n">
-        <v>66.46872667919754</v>
+        <v>56.06929495851641</v>
       </c>
       <c r="G37" t="n">
-        <v>9447032</v>
+        <v>9586049</v>
       </c>
       <c r="H37" t="n">
-        <v>8.57</v>
+        <v>8.33</v>
       </c>
       <c r="I37" t="n">
         <v>1.6</v>
@@ -3256,42 +3256,2322 @@
         <v>-61.90476190476191</v>
       </c>
       <c r="L37" t="n">
+        <v>34707750</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3722700</v>
+      </c>
+      <c r="N37" t="n">
+        <v>27052</v>
+      </c>
+      <c r="O37" t="n">
+        <v>15868</v>
+      </c>
+      <c r="P37" t="n">
+        <v>141.8812589413448</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2249407</v>
+      </c>
+      <c r="R37" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="S37" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-16</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-9.478672985781991</v>
+      </c>
+      <c r="V37" t="n">
+        <v>7913850</v>
+      </c>
+      <c r="W37" t="n">
+        <v>162500</v>
+      </c>
+      <c r="X37" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B38" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>59699</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-1850</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-3.005735267835383</v>
+      </c>
+      <c r="G38" t="n">
+        <v>393230</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-3.449999999999989</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-3.437967115097149</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6023850</v>
+      </c>
+      <c r="M38" t="n">
+        <v>223250</v>
+      </c>
+      <c r="N38" t="n">
+        <v>209935</v>
+      </c>
+      <c r="O38" t="n">
+        <v>56680</v>
+      </c>
+      <c r="P38" t="n">
+        <v>36.98411144823987</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4048144</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-88</v>
+      </c>
+      <c r="V38" t="n">
+        <v>23040900</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1755400</v>
+      </c>
+      <c r="X38" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B39" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>166843</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-9383</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-5.324412969709351</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2378558</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="I39" t="n">
+        <v>53</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-10.35</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-16.33780584056827</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10316200</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1243150</v>
+      </c>
+      <c r="N39" t="n">
+        <v>390429</v>
+      </c>
+      <c r="O39" t="n">
+        <v>138416</v>
+      </c>
+      <c r="P39" t="n">
+        <v>54.92415073825557</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>9622932</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="S39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-21.35</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-74.26086956521739</v>
+      </c>
+      <c r="V39" t="n">
+        <v>24057100</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2775550</v>
+      </c>
+      <c r="X39" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B40" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>330791</v>
+      </c>
+      <c r="E40" t="n">
+        <v>130550</v>
+      </c>
+      <c r="F40" t="n">
+        <v>65.19643829185831</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4847263</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="I40" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-40.71526822558459</v>
+      </c>
+      <c r="L40" t="n">
+        <v>16416500</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2277200</v>
+      </c>
+      <c r="N40" t="n">
+        <v>261884</v>
+      </c>
+      <c r="O40" t="n">
+        <v>175292</v>
+      </c>
+      <c r="P40" t="n">
+        <v>202.4344050258684</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>9149933</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="S40" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-24.95</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-48.16602316602316</v>
+      </c>
+      <c r="V40" t="n">
+        <v>21842700</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1256000</v>
+      </c>
+      <c r="X40" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>620095</v>
+      </c>
+      <c r="E41" t="n">
+        <v>343383</v>
+      </c>
+      <c r="F41" t="n">
+        <v>124.094003874064</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10189978</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-11.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-58.61182519280204</v>
+      </c>
+      <c r="L41" t="n">
+        <v>20947900</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5670300</v>
+      </c>
+      <c r="N41" t="n">
+        <v>139554</v>
+      </c>
+      <c r="O41" t="n">
+        <v>83253</v>
+      </c>
+      <c r="P41" t="n">
+        <v>147.8712633878617</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9434589</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="S41" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-22.34999999999999</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-26.43406268480188</v>
+      </c>
+      <c r="V41" t="n">
+        <v>15917350</v>
+      </c>
+      <c r="W41" t="n">
+        <v>619500</v>
+      </c>
+      <c r="X41" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B42" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>399389</v>
+      </c>
+      <c r="E42" t="n">
+        <v>239627</v>
+      </c>
+      <c r="F42" t="n">
+        <v>149.9899851028405</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9653860</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-69.23076923076923</v>
+      </c>
+      <c r="L42" t="n">
+        <v>23747700</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4108150</v>
+      </c>
+      <c r="N42" t="n">
+        <v>39163</v>
+      </c>
+      <c r="O42" t="n">
+        <v>31736</v>
+      </c>
+      <c r="P42" t="n">
+        <v>427.3057762218931</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4407534</v>
+      </c>
+      <c r="R42" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="S42" t="n">
+        <v>107.55</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-16.45</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-13.26612903225807</v>
+      </c>
+      <c r="V42" t="n">
+        <v>11016000</v>
+      </c>
+      <c r="W42" t="n">
+        <v>187400</v>
+      </c>
+      <c r="X42" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B43" t="n">
+        <v>19600</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>391080</v>
+      </c>
+      <c r="E43" t="n">
+        <v>140499</v>
+      </c>
+      <c r="F43" t="n">
+        <v>56.06929495851641</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9559363</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-64.28571428571429</v>
+      </c>
+      <c r="L43" t="n">
+        <v>34874000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3788150</v>
+      </c>
+      <c r="N43" t="n">
+        <v>27052</v>
+      </c>
+      <c r="O43" t="n">
+        <v>15868</v>
+      </c>
+      <c r="P43" t="n">
+        <v>141.8812589413448</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2246760</v>
+      </c>
+      <c r="R43" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="S43" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-13.20000000000002</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-7.819905213270152</v>
+      </c>
+      <c r="V43" t="n">
+        <v>7947350</v>
+      </c>
+      <c r="W43" t="n">
+        <v>151600</v>
+      </c>
+      <c r="X43" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B44" t="n">
+        <v>19300</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>53431</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-7164</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-11.82275765327172</v>
+      </c>
+      <c r="G44" t="n">
+        <v>270892</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>141.75</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-2.400000000000006</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-1.664932362122793</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2752950</v>
+      </c>
+      <c r="M44" t="n">
+        <v>214400</v>
+      </c>
+      <c r="N44" t="n">
+        <v>247936</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-16727</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-6.320112747153928</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3041856</v>
+      </c>
+      <c r="R44" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-86.58536585365853</v>
+      </c>
+      <c r="V44" t="n">
+        <v>31776900</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1709200</v>
+      </c>
+      <c r="X44" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B45" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>59572</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-1977</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-3.212074932167866</v>
+      </c>
+      <c r="G45" t="n">
+        <v>388583</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-7.449999999999989</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-7.424015944195306</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5993750</v>
+      </c>
+      <c r="M45" t="n">
+        <v>251800</v>
+      </c>
+      <c r="N45" t="n">
+        <v>214282</v>
+      </c>
+      <c r="O45" t="n">
+        <v>61027</v>
+      </c>
+      <c r="P45" t="n">
+        <v>39.82056050373561</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3999328</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-12.9</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-86</v>
+      </c>
+      <c r="V45" t="n">
+        <v>23184300</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1841400</v>
+      </c>
+      <c r="X45" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B46" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>171609</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-4617</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-2.619931224677403</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2344638</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>49.85</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-21.31018153117601</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10050500</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1303300</v>
+      </c>
+      <c r="N46" t="n">
+        <v>393574</v>
+      </c>
+      <c r="O46" t="n">
+        <v>141561</v>
+      </c>
+      <c r="P46" t="n">
+        <v>56.17210223282132</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>9535744</v>
+      </c>
+      <c r="R46" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="S46" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-19.9</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-69.21739130434781</v>
+      </c>
+      <c r="V46" t="n">
+        <v>24215750</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2608600</v>
+      </c>
+      <c r="X46" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B47" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>330791</v>
+      </c>
+      <c r="E47" t="n">
+        <v>130550</v>
+      </c>
+      <c r="F47" t="n">
+        <v>65.19643829185831</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4779455</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="I47" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-45.39202200825309</v>
+      </c>
+      <c r="L47" t="n">
+        <v>16087150</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2305950</v>
+      </c>
+      <c r="N47" t="n">
+        <v>264441</v>
+      </c>
+      <c r="O47" t="n">
+        <v>177849</v>
+      </c>
+      <c r="P47" t="n">
+        <v>205.3873337028825</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>9099497</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="S47" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-22.1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-42.66409266409266</v>
+      </c>
+      <c r="V47" t="n">
+        <v>21929400</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1243250</v>
+      </c>
+      <c r="X47" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>607805</v>
+      </c>
+      <c r="E48" t="n">
+        <v>331093</v>
+      </c>
+      <c r="F48" t="n">
+        <v>119.6525629535401</v>
+      </c>
+      <c r="G48" t="n">
+        <v>10115520</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-62.72493573264781</v>
+      </c>
+      <c r="L48" t="n">
+        <v>20664050</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5819100</v>
+      </c>
+      <c r="N48" t="n">
+        <v>141847</v>
+      </c>
+      <c r="O48" t="n">
+        <v>85546</v>
+      </c>
+      <c r="P48" t="n">
+        <v>151.9440152039928</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>9409183</v>
+      </c>
+      <c r="R48" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="S48" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-16.95</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-20.04730928444708</v>
+      </c>
+      <c r="V48" t="n">
+        <v>16042900</v>
+      </c>
+      <c r="W48" t="n">
+        <v>592900</v>
+      </c>
+      <c r="X48" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B49" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>395444</v>
+      </c>
+      <c r="E49" t="n">
+        <v>235682</v>
+      </c>
+      <c r="F49" t="n">
+        <v>147.5206870219452</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9608299</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-6.399999999999999</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-70.32967032967032</v>
+      </c>
+      <c r="L49" t="n">
+        <v>23519000</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4089200</v>
+      </c>
+      <c r="N49" t="n">
+        <v>39876</v>
+      </c>
+      <c r="O49" t="n">
+        <v>32449</v>
+      </c>
+      <c r="P49" t="n">
+        <v>436.9058839369867</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4400659</v>
+      </c>
+      <c r="R49" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="S49" t="n">
+        <v>111.65</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-12.34999999999999</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-9.959677419354835</v>
+      </c>
+      <c r="V49" t="n">
+        <v>11036050</v>
+      </c>
+      <c r="W49" t="n">
+        <v>188900</v>
+      </c>
+      <c r="X49" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B50" t="n">
+        <v>19300</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>53431</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-7164</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-11.82275765327172</v>
+      </c>
+      <c r="G50" t="n">
+        <v>267989</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.295178633368019</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2763900</v>
+      </c>
+      <c r="M50" t="n">
+        <v>197800</v>
+      </c>
+      <c r="N50" t="n">
+        <v>247936</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-16727</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-6.320112747153928</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3011891</v>
+      </c>
+      <c r="R50" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-7.149999999999999</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-87.19512195121951</v>
+      </c>
+      <c r="V50" t="n">
+        <v>31847100</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2017400</v>
+      </c>
+      <c r="X50" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B51" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>59572</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1977</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-3.212074932167866</v>
+      </c>
+      <c r="G51" t="n">
+        <v>383851</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>100</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.3499999999999943</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.348779272546083</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6012050</v>
+      </c>
+      <c r="M51" t="n">
+        <v>232200</v>
+      </c>
+      <c r="N51" t="n">
+        <v>214282</v>
+      </c>
+      <c r="O51" t="n">
+        <v>61027</v>
+      </c>
+      <c r="P51" t="n">
+        <v>39.82056050373561</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3973524</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-87.33333333333333</v>
+      </c>
+      <c r="V51" t="n">
+        <v>23165950</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1827500</v>
+      </c>
+      <c r="X51" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B52" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>171609</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-4617</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-2.619931224677403</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2312753</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>56</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-7.350000000000001</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-11.60220994475138</v>
+      </c>
+      <c r="L52" t="n">
+        <v>10208950</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1226400</v>
+      </c>
+      <c r="N52" t="n">
+        <v>393574</v>
+      </c>
+      <c r="O52" t="n">
+        <v>141561</v>
+      </c>
+      <c r="P52" t="n">
+        <v>56.17210223282132</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>9465211</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="S52" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-74.78260869565217</v>
+      </c>
+      <c r="V52" t="n">
+        <v>24132200</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2909500</v>
+      </c>
+      <c r="X52" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B53" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>330791</v>
+      </c>
+      <c r="E53" t="n">
+        <v>130550</v>
+      </c>
+      <c r="F53" t="n">
+        <v>65.19643829185831</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4715563</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="I53" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-12.65</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-34.80055020632738</v>
+      </c>
+      <c r="L53" t="n">
+        <v>16603550</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2184800</v>
+      </c>
+      <c r="N53" t="n">
+        <v>264441</v>
+      </c>
+      <c r="O53" t="n">
+        <v>177849</v>
+      </c>
+      <c r="P53" t="n">
+        <v>205.3873337028825</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>9046371</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="S53" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-27.05</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-52.22007722007722</v>
+      </c>
+      <c r="V53" t="n">
+        <v>21806050</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1506950</v>
+      </c>
+      <c r="X53" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B54" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>607805</v>
+      </c>
+      <c r="E54" t="n">
+        <v>331093</v>
+      </c>
+      <c r="F54" t="n">
+        <v>119.6525629535401</v>
+      </c>
+      <c r="G54" t="n">
+        <v>10040833</v>
+      </c>
+      <c r="H54" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-10.35</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-53.2133676092545</v>
+      </c>
+      <c r="L54" t="n">
+        <v>21116700</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5577750</v>
+      </c>
+      <c r="N54" t="n">
+        <v>141847</v>
+      </c>
+      <c r="O54" t="n">
+        <v>85546</v>
+      </c>
+      <c r="P54" t="n">
+        <v>151.9440152039928</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>9383528</v>
+      </c>
+      <c r="R54" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="S54" t="n">
+        <v>60.55</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-24</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-28.38557066824364</v>
+      </c>
+      <c r="V54" t="n">
+        <v>15927450</v>
+      </c>
+      <c r="W54" t="n">
+        <v>752700</v>
+      </c>
+      <c r="X54" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B55" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>395444</v>
+      </c>
+      <c r="E55" t="n">
+        <v>235682</v>
+      </c>
+      <c r="F55" t="n">
+        <v>147.5206870219452</v>
+      </c>
+      <c r="G55" t="n">
+        <v>9547365</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-5.899999999999999</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-64.83516483516483</v>
+      </c>
+      <c r="L55" t="n">
+        <v>23671550</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4068600</v>
+      </c>
+      <c r="N55" t="n">
+        <v>39876</v>
+      </c>
+      <c r="O55" t="n">
+        <v>32449</v>
+      </c>
+      <c r="P55" t="n">
+        <v>436.9058839369867</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4395324</v>
+      </c>
+      <c r="R55" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="S55" t="n">
+        <v>104.95</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-19.05</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-15.36290322580645</v>
+      </c>
+      <c r="V55" t="n">
+        <v>11025700</v>
+      </c>
+      <c r="W55" t="n">
+        <v>217500</v>
+      </c>
+      <c r="X55" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B56" t="n">
+        <v>19300</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>53431</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-7164</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-11.82275765327172</v>
+      </c>
+      <c r="G56" t="n">
+        <v>267989</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.295178633368019</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2763900</v>
+      </c>
+      <c r="M56" t="n">
+        <v>197800</v>
+      </c>
+      <c r="N56" t="n">
+        <v>247936</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-16727</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-6.320112747153928</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3011891</v>
+      </c>
+      <c r="R56" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-7.149999999999999</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-87.19512195121951</v>
+      </c>
+      <c r="V56" t="n">
+        <v>31847100</v>
+      </c>
+      <c r="W56" t="n">
+        <v>2017400</v>
+      </c>
+      <c r="X56" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B57" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>59572</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1977</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-3.212074932167866</v>
+      </c>
+      <c r="G57" t="n">
+        <v>383851</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>100</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.3499999999999943</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.348779272546083</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6012050</v>
+      </c>
+      <c r="M57" t="n">
+        <v>232200</v>
+      </c>
+      <c r="N57" t="n">
+        <v>214282</v>
+      </c>
+      <c r="O57" t="n">
+        <v>61027</v>
+      </c>
+      <c r="P57" t="n">
+        <v>39.82056050373561</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3973524</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-87.33333333333333</v>
+      </c>
+      <c r="V57" t="n">
+        <v>23165950</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1827500</v>
+      </c>
+      <c r="X57" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B58" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>171609</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-4617</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-2.619931224677403</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2312753</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>56</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-7.350000000000001</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-11.60220994475138</v>
+      </c>
+      <c r="L58" t="n">
+        <v>10208950</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1226400</v>
+      </c>
+      <c r="N58" t="n">
+        <v>393574</v>
+      </c>
+      <c r="O58" t="n">
+        <v>141561</v>
+      </c>
+      <c r="P58" t="n">
+        <v>56.17210223282132</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>9465211</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="S58" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-74.78260869565217</v>
+      </c>
+      <c r="V58" t="n">
+        <v>24132200</v>
+      </c>
+      <c r="W58" t="n">
+        <v>2909500</v>
+      </c>
+      <c r="X58" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B59" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>330791</v>
+      </c>
+      <c r="E59" t="n">
+        <v>130550</v>
+      </c>
+      <c r="F59" t="n">
+        <v>65.19643829185831</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4715563</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="I59" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-12.65</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-34.80055020632738</v>
+      </c>
+      <c r="L59" t="n">
+        <v>16603550</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2184800</v>
+      </c>
+      <c r="N59" t="n">
+        <v>264441</v>
+      </c>
+      <c r="O59" t="n">
+        <v>177849</v>
+      </c>
+      <c r="P59" t="n">
+        <v>205.3873337028825</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>9046371</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="S59" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-27.05</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-52.22007722007722</v>
+      </c>
+      <c r="V59" t="n">
+        <v>21806050</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1506950</v>
+      </c>
+      <c r="X59" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B60" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>607805</v>
+      </c>
+      <c r="E60" t="n">
+        <v>331093</v>
+      </c>
+      <c r="F60" t="n">
+        <v>119.6525629535401</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10040833</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-10.35</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-53.2133676092545</v>
+      </c>
+      <c r="L60" t="n">
+        <v>21116700</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5577750</v>
+      </c>
+      <c r="N60" t="n">
+        <v>141847</v>
+      </c>
+      <c r="O60" t="n">
+        <v>85546</v>
+      </c>
+      <c r="P60" t="n">
+        <v>151.9440152039928</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>9383528</v>
+      </c>
+      <c r="R60" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="S60" t="n">
+        <v>60.55</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-24</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-28.38557066824364</v>
+      </c>
+      <c r="V60" t="n">
+        <v>15927450</v>
+      </c>
+      <c r="W60" t="n">
+        <v>752700</v>
+      </c>
+      <c r="X60" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B61" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>395444</v>
+      </c>
+      <c r="E61" t="n">
+        <v>235682</v>
+      </c>
+      <c r="F61" t="n">
+        <v>147.5206870219452</v>
+      </c>
+      <c r="G61" t="n">
+        <v>9547365</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-5.899999999999999</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-64.83516483516483</v>
+      </c>
+      <c r="L61" t="n">
+        <v>23671550</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4068600</v>
+      </c>
+      <c r="N61" t="n">
+        <v>39876</v>
+      </c>
+      <c r="O61" t="n">
+        <v>32449</v>
+      </c>
+      <c r="P61" t="n">
+        <v>436.9058839369867</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4395324</v>
+      </c>
+      <c r="R61" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="S61" t="n">
+        <v>104.95</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-19.05</v>
+      </c>
+      <c r="U61" t="n">
+        <v>-15.36290322580645</v>
+      </c>
+      <c r="V61" t="n">
+        <v>11025700</v>
+      </c>
+      <c r="W61" t="n">
+        <v>217500</v>
+      </c>
+      <c r="X61" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B62" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>59424</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-2125</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-3.452533753594697</v>
+      </c>
+      <c r="G62" t="n">
+        <v>379364</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.743896362730444</v>
+      </c>
+      <c r="L62" t="n">
+        <v>6030550</v>
+      </c>
+      <c r="M62" t="n">
+        <v>242400</v>
+      </c>
+      <c r="N62" t="n">
+        <v>216316</v>
+      </c>
+      <c r="O62" t="n">
+        <v>63061</v>
+      </c>
+      <c r="P62" t="n">
+        <v>41.14776026883299</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3927507</v>
+      </c>
+      <c r="R62" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-12.95</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-86.33333333333333</v>
+      </c>
+      <c r="V62" t="n">
+        <v>23010200</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1799350</v>
+      </c>
+      <c r="X62" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B63" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>166472</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-9754</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-5.534938090860599</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2276751</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>58</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-5.350000000000001</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-8.44514601420679</v>
+      </c>
+      <c r="L63" t="n">
+        <v>10325550</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1166000</v>
+      </c>
+      <c r="N63" t="n">
+        <v>385240</v>
+      </c>
+      <c r="O63" t="n">
+        <v>133227</v>
+      </c>
+      <c r="P63" t="n">
+        <v>52.86512997345375</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>9368443</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="S63" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-21.2</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-73.73913043478261</v>
+      </c>
+      <c r="V63" t="n">
+        <v>24016200</v>
+      </c>
+      <c r="W63" t="n">
+        <v>2915500</v>
+      </c>
+      <c r="X63" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>330015</v>
+      </c>
+      <c r="E64" t="n">
+        <v>129774</v>
+      </c>
+      <c r="F64" t="n">
+        <v>64.80890526915067</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4647580</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="I64" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-11.25</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-30.94910591471802</v>
+      </c>
+      <c r="L64" t="n">
+        <v>16764800</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2057100</v>
+      </c>
+      <c r="N64" t="n">
+        <v>263786</v>
+      </c>
+      <c r="O64" t="n">
+        <v>177194</v>
+      </c>
+      <c r="P64" t="n">
+        <v>204.6309127864006</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>8991551</v>
+      </c>
+      <c r="R64" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="S64" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-27.4</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-52.8957528957529</v>
+      </c>
+      <c r="V64" t="n">
+        <v>21773950</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1556700</v>
+      </c>
+      <c r="X64" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B65" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>603360</v>
+      </c>
+      <c r="E65" t="n">
+        <v>326648</v>
+      </c>
+      <c r="F65" t="n">
+        <v>118.0461996588511</v>
+      </c>
+      <c r="G65" t="n">
+        <v>9965288</v>
+      </c>
+      <c r="H65" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-9.85</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-50.6426735218509</v>
+      </c>
+      <c r="L65" t="n">
+        <v>21273200</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5514450</v>
+      </c>
+      <c r="N65" t="n">
+        <v>141808</v>
+      </c>
+      <c r="O65" t="n">
+        <v>85507</v>
+      </c>
+      <c r="P65" t="n">
+        <v>151.8747446759383</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>9358733</v>
+      </c>
+      <c r="R65" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="S65" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-25.15</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-29.74571259609699</v>
+      </c>
+      <c r="V65" t="n">
+        <v>15939750</v>
+      </c>
+      <c r="W65" t="n">
+        <v>764050</v>
+      </c>
+      <c r="X65" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B66" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>398842</v>
+      </c>
+      <c r="E66" t="n">
+        <v>239080</v>
+      </c>
+      <c r="F66" t="n">
+        <v>149.6476008061992</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9488233</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-5.649999999999999</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-62.08791208791209</v>
+      </c>
+      <c r="L66" t="n">
+        <v>23730050</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3972450</v>
+      </c>
+      <c r="N66" t="n">
+        <v>38614</v>
+      </c>
+      <c r="O66" t="n">
+        <v>31187</v>
+      </c>
+      <c r="P66" t="n">
+        <v>419.913827925138</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4390670</v>
+      </c>
+      <c r="R66" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="S66" t="n">
+        <v>103.35</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-20.65000000000001</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-16.65322580645162</v>
+      </c>
+      <c r="V66" t="n">
+        <v>11028800</v>
+      </c>
+      <c r="W66" t="n">
+        <v>214800</v>
+      </c>
+      <c r="X66" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B67" t="n">
+        <v>19600</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>417139</v>
+      </c>
+      <c r="E67" t="n">
+        <v>166558</v>
+      </c>
+      <c r="F67" t="n">
+        <v>66.46872667919754</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9447032</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-61.90476190476191</v>
+      </c>
+      <c r="L67" t="n">
         <v>34834900</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M67" t="n">
         <v>4171850</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N67" t="n">
         <v>27967</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O67" t="n">
         <v>16783</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P67" t="n">
         <v>150.0625894134478</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q67" t="n">
         <v>2237412</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R67" t="n">
         <v>11.86</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S67" t="n">
         <v>151.4</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T67" t="n">
         <v>-17.40000000000001</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U67" t="n">
         <v>-10.30805687203792</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V67" t="n">
         <v>7946400</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W67" t="n">
         <v>178100</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X67" t="n">
         <v>19446.25</v>
       </c>
     </row>
